--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -1,77 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Poc\Postgres-to-CSV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92A51EB-8957-41C0-AB8A-0EAC857BF812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{106AE823-0684-4914-A87F-E4569B6989CE}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>S No</t>
-  </si>
-  <si>
-    <t>Screen Name</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>CSV Name</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>SELECT company_name, reg_id, company_address FROM public."Company"</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,43 +439,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B4709-FCE9-4D8F-A9AE-0358F3AEC547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col width="15.6640625" customWidth="1" min="2" max="2"/>
+    <col width="63.6640625" customWidth="1" min="3" max="3"/>
+    <col width="12.6640625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>S No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Screen Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Query</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CSV Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SELECT  reg_id, company_address FROM public."Company"</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Company.csv</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -444,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -499,6 +499,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SELECT  company_name,reg_id, company_address FROM public."Company"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company_1.csv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -510,12 +510,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELECT  company_name,reg_id, company_address FROM public."Company"</t>
+          <t>SELECT  company_name,reg_id, company_address FROM public."ff"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Company_1.csv</t>
+          <t xml:space="preserve">ERROR: relation "public.ff" does not exist
+LINE 1: SELECT  company_name,reg_id, company_address FROM public."ff...
+                                                          ^
+</t>
         </is>
       </c>
     </row>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -510,15 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELECT  company_name,reg_id, company_address FROM public."ff"</t>
+          <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERROR: relation "public.ff" does not exist
-LINE 1: SELECT  company_name,reg_id, company_address FROM public."ff...
-                                                          ^
-</t>
+          <t>Company_1.csv</t>
         </is>
       </c>
     </row>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -3,26 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +39,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -43,15 +56,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -128,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -158,116 +186,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,243 +273,262 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.6640625" customWidth="1" min="2" max="2"/>
-    <col width="63.6640625" customWidth="1" min="3" max="3"/>
-    <col width="12.6640625" customWidth="1" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="15.71928571428571" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="63.71928571428572" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="25.71928571428571" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>S No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Screen Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Query</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>CSV Name</t>
         </is>
       </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>SELECT  reg_id, company_address FROM public."Company"</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Company.csv</t>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>kundanCompany.csv</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Company_1.csv</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>krishnaCompany.csv</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
     </row>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -1,39 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Poc\Postgres-to-CSV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508868F-9608-4987-BBA9-D3C50436FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Screen Name</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>CSV Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>SELECT  reg_id, company_address FROM public."Company"</t>
+  </si>
+  <si>
+    <t>kundanCompany.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
+  </si>
+  <si>
+    <t>krishnaCompany.csv</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>SELECT full_name, email FROM users</t>
+  </si>
+  <si>
+    <t>users.csv</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>SELECT product_name,price FROM products</t>
+  </si>
+  <si>
+    <t>products.csv</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>SELECT user_id, product_id, quantity, order_date from orders</t>
+  </si>
+  <si>
+    <t>orders.csv</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,96 +125,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -197,71 +197,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,7 +289,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -312,11 +312,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -325,13 +325,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -341,7 +341,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -350,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,10 +367,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -435,101 +435,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="15.71928571428571" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="63.71928571428572" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="25.71928571428571" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>S No</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Screen Name</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Query</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>CSV Name</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>SELECT  reg_id, company_address FROM public."Company"</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>kundanCompany.csv</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>krishnaCompany.csv</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/QueryDetails.xlsx
+++ b/QueryDetails.xlsx
@@ -1,106 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Poc\Postgres-to-CSV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508868F-9608-4987-BBA9-D3C50436FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>S No</t>
-  </si>
-  <si>
-    <t>Screen Name</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>CSV Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>SELECT  reg_id, company_address FROM public."Company"</t>
-  </si>
-  <si>
-    <t>kundanCompany.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
-  </si>
-  <si>
-    <t>krishnaCompany.csv</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>SELECT full_name, email FROM users</t>
-  </si>
-  <si>
-    <t>users.csv</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>SELECT product_name,price FROM products</t>
-  </si>
-  <si>
-    <t>products.csv</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>SELECT user_id, product_id, quantity, order_date from orders</t>
-  </si>
-  <si>
-    <t>orders.csv</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,28 +59,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,9 +427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -445,102 +438,165 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="15.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="63.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="25.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>S No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Screen Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Query</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CSV Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SELECT  reg_id, company_address FROM public."Company"</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kundanCompany.csv</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>ERROR: ('IM002', '[IM002] [Microsoft][ODBC Driver Manager] Data source name not found and no default driver specified (0) (SQLDriverConnect)')</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SELECT  company_name,reg_id, company_address FROM public."Company"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>krishnaCompany.csv</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>ERROR: ('IM002', '[IM002] [Microsoft][ODBC Driver Manager] Data source name not found and no default driver specified (0) (SQLDriverConnect)')</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SELECT full_name, email FROM users</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>users.csv</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ERROR: ('IM002', '[IM002] [Microsoft][ODBC Driver Manager] Data source name not found and no default driver specified (0) (SQLDriverConnect)')</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SELECT product_name,price FROM products</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>products.csv</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ERROR: ('IM002', '[IM002] [Microsoft][ODBC Driver Manager] Data source name not found and no default driver specified (0) (SQLDriverConnect)')</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SELECT user_id, product_id, quantity, order_date from orders</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>orders.csv</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ERROR: ('IM002', '[IM002] [Microsoft][ODBC Driver Manager] Data source name not found and no default driver specified (0) (SQLDriverConnect)')</t>
+        </is>
       </c>
     </row>
   </sheetData>
